--- a/Excel/Excel-Payroll_Project.xlsx
+++ b/Excel/Excel-Payroll_Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balarusum/Desktop/Data Science/Data-Science/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273E593-948A-3F47-8BCF-A7BFE20CB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013EBDA5-B8AB-214E-81FF-A541A9A726F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{D5B2F8D5-B999-FF46-9CC8-7F8360C9DA74}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16140" activeTab="1" xr2:uid="{D5B2F8D5-B999-FF46-9CC8-7F8360C9DA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sep 2023" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Employee payroll</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Balaswamy</t>
   </si>
   <si>
     <t>Overtime Hours</t>
@@ -275,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -291,7 +288,6 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -614,16 +610,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E47BE07-4BBD-144A-AC7F-1F4FA59F3A54}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -641,9 +639,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -654,19 +649,19 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>5</v>
       </c>
       <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AD3" t="s">
         <v>52</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -972,27 +967,27 @@
         <v>15</v>
       </c>
       <c r="X6" s="13">
-        <f xml:space="preserve"> SUM(N6,S6)</f>
+        <f t="shared" ref="X6:X24" si="14" xml:space="preserve"> SUM(N6,S6)</f>
         <v>445</v>
       </c>
       <c r="Y6" s="13">
-        <f t="shared" ref="Y5:AB20" si="14" xml:space="preserve"> SUM(O6,T6)</f>
+        <f t="shared" ref="Y6:AB20" si="15" xml:space="preserve"> SUM(O6,T6)</f>
         <v>445</v>
       </c>
       <c r="Z6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>445</v>
       </c>
       <c r="AA6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>445</v>
       </c>
       <c r="AB6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>445</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" ref="AD6:AD24" si="15">SUM(X6:AB6)</f>
+        <f t="shared" ref="AD6:AD24" si="16">SUM(X6:AB6)</f>
         <v>2225</v>
       </c>
     </row>
@@ -1026,19 +1021,19 @@
         <v>3</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" ref="J7" si="16">IF(E7 &gt;40,E7-40, 0)</f>
+        <f t="shared" ref="J7" si="17">IF(E7 &gt;40,E7-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" ref="K7:L7" si="17">IF(F7 &gt;40,F7-40, 0)</f>
+        <f t="shared" ref="K7:L7" si="18">IF(F7 &gt;40,F7-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" ref="M7" si="18">IF(H7 &gt;40,H7-40, 0)</f>
+        <f t="shared" ref="M7" si="19">IF(H7 &gt;40,H7-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N7" s="9">
@@ -1082,27 +1077,27 @@
         <v>33.150000000000006</v>
       </c>
       <c r="X7" s="13">
-        <f xml:space="preserve"> SUM(N7,S7)</f>
-        <v>983.45</v>
-      </c>
-      <c r="Y7" s="13">
         <f t="shared" si="14"/>
         <v>983.45</v>
       </c>
+      <c r="Y7" s="13">
+        <f t="shared" si="15"/>
+        <v>983.45</v>
+      </c>
       <c r="Z7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>983.45</v>
       </c>
       <c r="AA7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>983.45</v>
       </c>
       <c r="AB7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>983.45</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4917.25</v>
       </c>
     </row>
@@ -1136,19 +1131,19 @@
         <v>3</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" ref="J8" si="19">IF(E8 &gt;40,E8-40, 0)</f>
+        <f t="shared" ref="J8" si="20">IF(E8 &gt;40,E8-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" ref="K8:L8" si="20">IF(F8 &gt;40,F8-40, 0)</f>
+        <f t="shared" ref="K8:L8" si="21">IF(F8 &gt;40,F8-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" ref="M8" si="21">IF(H8 &gt;40,H8-40, 0)</f>
+        <f t="shared" ref="M8" si="22">IF(H8 &gt;40,H8-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N8" s="9">
@@ -1192,27 +1187,27 @@
         <v>28.650000000000002</v>
       </c>
       <c r="X8" s="13">
-        <f xml:space="preserve"> SUM(N8,S8)</f>
-        <v>849.95</v>
-      </c>
-      <c r="Y8" s="13">
         <f t="shared" si="14"/>
         <v>849.95</v>
       </c>
+      <c r="Y8" s="13">
+        <f t="shared" si="15"/>
+        <v>849.95</v>
+      </c>
       <c r="Z8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>849.95</v>
       </c>
       <c r="AA8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>849.95</v>
       </c>
       <c r="AB8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>849.95</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4249.75</v>
       </c>
     </row>
@@ -1246,19 +1241,19 @@
         <v>3</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" ref="J9" si="22">IF(E9 &gt;40,E9-40, 0)</f>
+        <f t="shared" ref="J9" si="23">IF(E9 &gt;40,E9-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" ref="K9:L9" si="23">IF(F9 &gt;40,F9-40, 0)</f>
+        <f t="shared" ref="K9:L9" si="24">IF(F9 &gt;40,F9-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9" si="24">IF(H9 &gt;40,H9-40, 0)</f>
+        <f t="shared" ref="M9" si="25">IF(H9 &gt;40,H9-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N9" s="9">
@@ -1302,27 +1297,27 @@
         <v>10.350000000000001</v>
       </c>
       <c r="X9" s="13">
-        <f xml:space="preserve"> SUM(N9,S9)</f>
-        <v>307.05</v>
-      </c>
-      <c r="Y9" s="13">
         <f t="shared" si="14"/>
         <v>307.05</v>
       </c>
+      <c r="Y9" s="13">
+        <f t="shared" si="15"/>
+        <v>307.05</v>
+      </c>
       <c r="Z9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>307.05</v>
       </c>
       <c r="AA9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>307.05</v>
       </c>
       <c r="AB9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>307.05</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1535.25</v>
       </c>
     </row>
@@ -1356,19 +1351,19 @@
         <v>3</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" ref="J10" si="25">IF(E10 &gt;40,E10-40, 0)</f>
+        <f t="shared" ref="J10" si="26">IF(E10 &gt;40,E10-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" ref="K10:L10" si="26">IF(F10 &gt;40,F10-40, 0)</f>
+        <f t="shared" ref="K10:L10" si="27">IF(F10 &gt;40,F10-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" ref="M10" si="27">IF(H10 &gt;40,H10-40, 0)</f>
+        <f t="shared" ref="M10" si="28">IF(H10 &gt;40,H10-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N10" s="9">
@@ -1412,27 +1407,27 @@
         <v>21.299999999999997</v>
       </c>
       <c r="X10" s="13">
-        <f xml:space="preserve"> SUM(N10,S10)</f>
-        <v>631.9</v>
-      </c>
-      <c r="Y10" s="13">
         <f t="shared" si="14"/>
         <v>631.9</v>
       </c>
+      <c r="Y10" s="13">
+        <f t="shared" si="15"/>
+        <v>631.9</v>
+      </c>
       <c r="Z10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>631.9</v>
       </c>
       <c r="AA10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>631.9</v>
       </c>
       <c r="AB10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>631.9</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3159.5</v>
       </c>
     </row>
@@ -1466,19 +1461,19 @@
         <v>3</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" ref="J11" si="28">IF(E11 &gt;40,E11-40, 0)</f>
+        <f t="shared" ref="J11" si="29">IF(E11 &gt;40,E11-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" ref="K11:L11" si="29">IF(F11 &gt;40,F11-40, 0)</f>
+        <f t="shared" ref="K11:L11" si="30">IF(F11 &gt;40,F11-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L11" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" ref="M11" si="30">IF(H11 &gt;40,H11-40, 0)</f>
+        <f t="shared" ref="M11" si="31">IF(H11 &gt;40,H11-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N11" s="9">
@@ -1522,27 +1517,27 @@
         <v>27</v>
       </c>
       <c r="X11" s="13">
-        <f xml:space="preserve"> SUM(N11,S11)</f>
-        <v>801</v>
-      </c>
-      <c r="Y11" s="13">
         <f t="shared" si="14"/>
         <v>801</v>
       </c>
+      <c r="Y11" s="13">
+        <f t="shared" si="15"/>
+        <v>801</v>
+      </c>
       <c r="Z11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="AA11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4005</v>
       </c>
     </row>
@@ -1576,19 +1571,19 @@
         <v>3</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" ref="J12" si="31">IF(E12 &gt;40,E12-40, 0)</f>
+        <f t="shared" ref="J12" si="32">IF(E12 &gt;40,E12-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" ref="K12:L12" si="32">IF(F12 &gt;40,F12-40, 0)</f>
+        <f t="shared" ref="K12:L12" si="33">IF(F12 &gt;40,F12-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12" si="33">IF(H12 &gt;40,H12-40, 0)</f>
+        <f t="shared" ref="M12" si="34">IF(H12 &gt;40,H12-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N12" s="9">
@@ -1632,27 +1627,27 @@
         <v>26.25</v>
       </c>
       <c r="X12" s="13">
-        <f xml:space="preserve"> SUM(N12,S12)</f>
-        <v>778.75</v>
-      </c>
-      <c r="Y12" s="13">
         <f t="shared" si="14"/>
         <v>778.75</v>
       </c>
+      <c r="Y12" s="13">
+        <f t="shared" si="15"/>
+        <v>778.75</v>
+      </c>
       <c r="Z12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>778.75</v>
       </c>
       <c r="AA12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>778.75</v>
       </c>
       <c r="AB12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>778.75</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3893.75</v>
       </c>
     </row>
@@ -1686,19 +1681,19 @@
         <v>3</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" ref="J13" si="34">IF(E13 &gt;40,E13-40, 0)</f>
+        <f t="shared" ref="J13" si="35">IF(E13 &gt;40,E13-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" ref="K13:L13" si="35">IF(F13 &gt;40,F13-40, 0)</f>
+        <f t="shared" ref="K13:L13" si="36">IF(F13 &gt;40,F13-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" ref="M13" si="36">IF(H13 &gt;40,H13-40, 0)</f>
+        <f t="shared" ref="M13" si="37">IF(H13 &gt;40,H13-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N13" s="9">
@@ -1742,27 +1737,27 @@
         <v>22.049999999999997</v>
       </c>
       <c r="X13" s="13">
-        <f xml:space="preserve"> SUM(N13,S13)</f>
-        <v>654.15</v>
-      </c>
-      <c r="Y13" s="13">
         <f t="shared" si="14"/>
         <v>654.15</v>
       </c>
+      <c r="Y13" s="13">
+        <f t="shared" si="15"/>
+        <v>654.15</v>
+      </c>
       <c r="Z13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>654.15</v>
       </c>
       <c r="AA13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>654.15</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>654.15</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3270.75</v>
       </c>
     </row>
@@ -1796,19 +1791,19 @@
         <v>3</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" ref="J14" si="37">IF(E14 &gt;40,E14-40, 0)</f>
+        <f t="shared" ref="J14" si="38">IF(E14 &gt;40,E14-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" ref="K14:L14" si="38">IF(F14 &gt;40,F14-40, 0)</f>
+        <f t="shared" ref="K14:L14" si="39">IF(F14 &gt;40,F14-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" ref="M14" si="39">IF(H14 &gt;40,H14-40, 0)</f>
+        <f t="shared" ref="M14" si="40">IF(H14 &gt;40,H14-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N14" s="9">
@@ -1852,27 +1847,27 @@
         <v>20.85</v>
       </c>
       <c r="X14" s="13">
-        <f xml:space="preserve"> SUM(N14,S14)</f>
-        <v>618.55000000000007</v>
-      </c>
-      <c r="Y14" s="13">
         <f t="shared" si="14"/>
         <v>618.55000000000007</v>
       </c>
+      <c r="Y14" s="13">
+        <f t="shared" si="15"/>
+        <v>618.55000000000007</v>
+      </c>
       <c r="Z14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>618.55000000000007</v>
       </c>
       <c r="AA14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>618.55000000000007</v>
       </c>
       <c r="AB14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>618.55000000000007</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3092.7500000000005</v>
       </c>
     </row>
@@ -1906,19 +1901,19 @@
         <v>3</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" ref="J15" si="40">IF(E15 &gt;40,E15-40, 0)</f>
+        <f t="shared" ref="J15" si="41">IF(E15 &gt;40,E15-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" ref="K15:L15" si="41">IF(F15 &gt;40,F15-40, 0)</f>
+        <f t="shared" ref="K15:L15" si="42">IF(F15 &gt;40,F15-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" ref="M15" si="42">IF(H15 &gt;40,H15-40, 0)</f>
+        <f t="shared" ref="M15" si="43">IF(H15 &gt;40,H15-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N15" s="9">
@@ -1962,27 +1957,27 @@
         <v>16.799999999999997</v>
       </c>
       <c r="X15" s="13">
-        <f xml:space="preserve"> SUM(N15,S15)</f>
-        <v>498.4</v>
-      </c>
-      <c r="Y15" s="13">
         <f t="shared" si="14"/>
         <v>498.4</v>
       </c>
+      <c r="Y15" s="13">
+        <f t="shared" si="15"/>
+        <v>498.4</v>
+      </c>
       <c r="Z15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>498.4</v>
       </c>
       <c r="AA15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>498.4</v>
       </c>
       <c r="AB15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>498.4</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2492</v>
       </c>
     </row>
@@ -2016,19 +2011,19 @@
         <v>3</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" ref="J16" si="43">IF(E16 &gt;40,E16-40, 0)</f>
+        <f t="shared" ref="J16" si="44">IF(E16 &gt;40,E16-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" ref="K16:L16" si="44">IF(F16 &gt;40,F16-40, 0)</f>
+        <f t="shared" ref="K16:L16" si="45">IF(F16 &gt;40,F16-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" ref="M16" si="45">IF(H16 &gt;40,H16-40, 0)</f>
+        <f t="shared" ref="M16" si="46">IF(H16 &gt;40,H16-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N16" s="9">
@@ -2072,27 +2067,27 @@
         <v>15.149999999999999</v>
       </c>
       <c r="X16" s="13">
-        <f xml:space="preserve"> SUM(N16,S16)</f>
-        <v>449.45</v>
-      </c>
-      <c r="Y16" s="13">
         <f t="shared" si="14"/>
         <v>449.45</v>
       </c>
+      <c r="Y16" s="13">
+        <f t="shared" si="15"/>
+        <v>449.45</v>
+      </c>
       <c r="Z16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>449.45</v>
       </c>
       <c r="AA16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>449.45</v>
       </c>
       <c r="AB16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>449.45</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2247.25</v>
       </c>
     </row>
@@ -2126,19 +2121,19 @@
         <v>3</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" ref="J17" si="46">IF(E17 &gt;40,E17-40, 0)</f>
+        <f t="shared" ref="J17" si="47">IF(E17 &gt;40,E17-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" ref="K17:L17" si="47">IF(F17 &gt;40,F17-40, 0)</f>
+        <f t="shared" ref="K17:L17" si="48">IF(F17 &gt;40,F17-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17" si="48">IF(H17 &gt;40,H17-40, 0)</f>
+        <f t="shared" ref="M17" si="49">IF(H17 &gt;40,H17-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N17" s="9">
@@ -2182,27 +2177,27 @@
         <v>13.5</v>
       </c>
       <c r="X17" s="13">
-        <f xml:space="preserve"> SUM(N17,S17)</f>
-        <v>400.5</v>
-      </c>
-      <c r="Y17" s="13">
         <f t="shared" si="14"/>
         <v>400.5</v>
       </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="15"/>
+        <v>400.5</v>
+      </c>
       <c r="Z17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>400.5</v>
       </c>
       <c r="AA17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>400.5</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>400.5</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2002.5</v>
       </c>
     </row>
@@ -2236,19 +2231,19 @@
         <v>3</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" ref="J18" si="49">IF(E18 &gt;40,E18-40, 0)</f>
+        <f t="shared" ref="J18" si="50">IF(E18 &gt;40,E18-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" ref="K18:L18" si="50">IF(F18 &gt;40,F18-40, 0)</f>
+        <f t="shared" ref="K18:L18" si="51">IF(F18 &gt;40,F18-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" ref="M18" si="51">IF(H18 &gt;40,H18-40, 0)</f>
+        <f t="shared" ref="M18" si="52">IF(H18 &gt;40,H18-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N18" s="9">
@@ -2292,27 +2287,27 @@
         <v>12.66</v>
       </c>
       <c r="X18" s="13">
-        <f xml:space="preserve"> SUM(N18,S18)</f>
-        <v>375.58</v>
-      </c>
-      <c r="Y18" s="13">
         <f t="shared" si="14"/>
         <v>375.58</v>
       </c>
+      <c r="Y18" s="13">
+        <f t="shared" si="15"/>
+        <v>375.58</v>
+      </c>
       <c r="Z18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>375.58</v>
       </c>
       <c r="AA18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>375.58</v>
       </c>
       <c r="AB18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>375.58</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1877.8999999999999</v>
       </c>
     </row>
@@ -2346,19 +2341,19 @@
         <v>3</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" ref="J19" si="52">IF(E19 &gt;40,E19-40, 0)</f>
+        <f t="shared" ref="J19" si="53">IF(E19 &gt;40,E19-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" ref="K19:L19" si="53">IF(F19 &gt;40,F19-40, 0)</f>
+        <f t="shared" ref="K19:L19" si="54">IF(F19 &gt;40,F19-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19" si="54">IF(H19 &gt;40,H19-40, 0)</f>
+        <f t="shared" ref="M19" si="55">IF(H19 &gt;40,H19-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N19" s="9">
@@ -2402,27 +2397,27 @@
         <v>21.299999999999997</v>
       </c>
       <c r="X19" s="13">
-        <f xml:space="preserve"> SUM(N19,S19)</f>
-        <v>631.9</v>
-      </c>
-      <c r="Y19" s="13">
         <f t="shared" si="14"/>
         <v>631.9</v>
       </c>
+      <c r="Y19" s="13">
+        <f t="shared" si="15"/>
+        <v>631.9</v>
+      </c>
       <c r="Z19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>631.9</v>
       </c>
       <c r="AA19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>631.9</v>
       </c>
       <c r="AB19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>631.9</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3159.5</v>
       </c>
     </row>
@@ -2456,19 +2451,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" ref="J20" si="55">IF(E20 &gt;40,E20-40, 0)</f>
+        <f t="shared" ref="J20" si="56">IF(E20 &gt;40,E20-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" ref="K20:L20" si="56">IF(F20 &gt;40,F20-40, 0)</f>
+        <f t="shared" ref="K20:L20" si="57">IF(F20 &gt;40,F20-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20" si="57">IF(H20 &gt;40,H20-40, 0)</f>
+        <f t="shared" ref="M20" si="58">IF(H20 &gt;40,H20-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N20" s="9">
@@ -2512,27 +2507,27 @@
         <v>67.5</v>
       </c>
       <c r="X20" s="13">
-        <f xml:space="preserve"> SUM(N20,S20)</f>
-        <v>2002.5</v>
-      </c>
-      <c r="Y20" s="13">
         <f t="shared" si="14"/>
         <v>2002.5</v>
       </c>
+      <c r="Y20" s="13">
+        <f t="shared" si="15"/>
+        <v>2002.5</v>
+      </c>
       <c r="Z20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2002.5</v>
       </c>
       <c r="AA20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2002.5</v>
       </c>
       <c r="AB20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2002.5</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10012.5</v>
       </c>
     </row>
@@ -2566,19 +2561,19 @@
         <v>3</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" ref="J21" si="58">IF(E21 &gt;40,E21-40, 0)</f>
+        <f t="shared" ref="J21" si="59">IF(E21 &gt;40,E21-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" ref="K21:L21" si="59">IF(F21 &gt;40,F21-40, 0)</f>
+        <f t="shared" ref="K21:L21" si="60">IF(F21 &gt;40,F21-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" ref="M21" si="60">IF(H21 &gt;40,H21-40, 0)</f>
+        <f t="shared" ref="M21" si="61">IF(H21 &gt;40,H21-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N21" s="9">
@@ -2590,15 +2585,15 @@
         <v>1290</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" ref="P21:P24" si="61">$C21*F21</f>
+        <f t="shared" ref="P21:P24" si="62">$C21*F21</f>
         <v>1290</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" ref="Q21:Q24" si="62">$C21*G21</f>
+        <f t="shared" ref="Q21:Q24" si="63">$C21*G21</f>
         <v>1290</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" ref="R21:R24" si="63">$C21*H21</f>
+        <f t="shared" ref="R21:R24" si="64">$C21*H21</f>
         <v>1290</v>
       </c>
       <c r="S21" s="11">
@@ -2606,43 +2601,43 @@
         <v>45</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" ref="T21:T24" si="64">0.5*$C21*J21</f>
+        <f t="shared" ref="T21:T24" si="65">0.5*$C21*J21</f>
         <v>45</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" ref="U21:U24" si="65">0.5*$C21*K21</f>
+        <f t="shared" ref="U21:U24" si="66">0.5*$C21*K21</f>
         <v>45</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" ref="V21:V24" si="66">0.5*$C21*L21</f>
+        <f t="shared" ref="V21:V24" si="67">0.5*$C21*L21</f>
         <v>45</v>
       </c>
       <c r="W21" s="11">
-        <f t="shared" ref="W21:W24" si="67">0.5*$C21*M21</f>
+        <f t="shared" ref="W21:W24" si="68">0.5*$C21*M21</f>
         <v>45</v>
       </c>
       <c r="X21" s="13">
-        <f xml:space="preserve"> SUM(N21,S21)</f>
+        <f t="shared" si="14"/>
         <v>1335</v>
       </c>
       <c r="Y21" s="13">
-        <f t="shared" ref="Y21:AB24" si="68" xml:space="preserve"> SUM(O21,T21)</f>
+        <f t="shared" ref="Y21:AB24" si="69" xml:space="preserve"> SUM(O21,T21)</f>
         <v>1335</v>
       </c>
       <c r="Z21" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1335</v>
       </c>
       <c r="AA21" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1335</v>
       </c>
       <c r="AB21" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1335</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6675</v>
       </c>
     </row>
@@ -2676,19 +2671,19 @@
         <v>3</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" ref="J22" si="69">IF(E22 &gt;40,E22-40, 0)</f>
+        <f t="shared" ref="J22" si="70">IF(E22 &gt;40,E22-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" ref="K22:L22" si="70">IF(F22 &gt;40,F22-40, 0)</f>
+        <f t="shared" ref="K22:L22" si="71">IF(F22 &gt;40,F22-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" ref="M22" si="71">IF(H22 &gt;40,H22-40, 0)</f>
+        <f t="shared" ref="M22" si="72">IF(H22 &gt;40,H22-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N22" s="9">
@@ -2700,15 +2695,15 @@
         <v>967.5</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="61"/>
-        <v>967.5</v>
-      </c>
-      <c r="Q22" s="9">
         <f t="shared" si="62"/>
         <v>967.5</v>
       </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="63"/>
+        <v>967.5</v>
+      </c>
       <c r="R22" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>967.5</v>
       </c>
       <c r="S22" s="11">
@@ -2716,43 +2711,43 @@
         <v>33.75</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" si="64"/>
-        <v>33.75</v>
-      </c>
-      <c r="U22" s="11">
         <f t="shared" si="65"/>
         <v>33.75</v>
       </c>
-      <c r="V22" s="11">
+      <c r="U22" s="11">
         <f t="shared" si="66"/>
         <v>33.75</v>
       </c>
-      <c r="W22" s="11">
+      <c r="V22" s="11">
         <f t="shared" si="67"/>
         <v>33.75</v>
       </c>
+      <c r="W22" s="11">
+        <f t="shared" si="68"/>
+        <v>33.75</v>
+      </c>
       <c r="X22" s="13">
-        <f xml:space="preserve"> SUM(N22,S22)</f>
+        <f t="shared" si="14"/>
         <v>1001.25</v>
       </c>
       <c r="Y22" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1001.25</v>
       </c>
       <c r="Z22" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1001.25</v>
       </c>
       <c r="AA22" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1001.25</v>
       </c>
       <c r="AB22" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1001.25</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5006.25</v>
       </c>
     </row>
@@ -2786,19 +2781,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" ref="J23" si="72">IF(E23 &gt;40,E23-40, 0)</f>
+        <f t="shared" ref="J23" si="73">IF(E23 &gt;40,E23-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" ref="K23:L23" si="73">IF(F23 &gt;40,F23-40, 0)</f>
+        <f t="shared" ref="K23:L23" si="74">IF(F23 &gt;40,F23-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" ref="M23" si="74">IF(H23 &gt;40,H23-40, 0)</f>
+        <f t="shared" ref="M23" si="75">IF(H23 &gt;40,H23-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N23" s="9">
@@ -2810,15 +2805,15 @@
         <v>1427.6000000000001</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="61"/>
-        <v>1427.6000000000001</v>
-      </c>
-      <c r="Q23" s="9">
         <f t="shared" si="62"/>
         <v>1427.6000000000001</v>
       </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="63"/>
+        <v>1427.6000000000001</v>
+      </c>
       <c r="R23" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1427.6000000000001</v>
       </c>
       <c r="S23" s="11">
@@ -2826,43 +2821,43 @@
         <v>49.800000000000004</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" si="64"/>
-        <v>49.800000000000004</v>
-      </c>
-      <c r="U23" s="11">
         <f t="shared" si="65"/>
         <v>49.800000000000004</v>
       </c>
-      <c r="V23" s="11">
+      <c r="U23" s="11">
         <f t="shared" si="66"/>
         <v>49.800000000000004</v>
       </c>
-      <c r="W23" s="11">
+      <c r="V23" s="11">
         <f t="shared" si="67"/>
         <v>49.800000000000004</v>
       </c>
+      <c r="W23" s="11">
+        <f t="shared" si="68"/>
+        <v>49.800000000000004</v>
+      </c>
       <c r="X23" s="13">
-        <f xml:space="preserve"> SUM(N23,S23)</f>
+        <f t="shared" si="14"/>
         <v>1477.4</v>
       </c>
       <c r="Y23" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1477.4</v>
       </c>
       <c r="Z23" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1477.4</v>
       </c>
       <c r="AA23" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1477.4</v>
       </c>
       <c r="AB23" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1477.4</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7387</v>
       </c>
     </row>
@@ -2896,19 +2891,19 @@
         <v>3</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" ref="J24" si="75">IF(E24 &gt;40,E24-40, 0)</f>
+        <f t="shared" ref="J24" si="76">IF(E24 &gt;40,E24-40, 0)</f>
         <v>3</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" ref="K24:L24" si="76">IF(F24 &gt;40,F24-40, 0)</f>
+        <f t="shared" ref="K24:L24" si="77">IF(F24 &gt;40,F24-40, 0)</f>
         <v>3</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" ref="M24" si="77">IF(H24 &gt;40,H24-40, 0)</f>
+        <f t="shared" ref="M24" si="78">IF(H24 &gt;40,H24-40, 0)</f>
         <v>3</v>
       </c>
       <c r="N24" s="9">
@@ -2920,15 +2915,15 @@
         <v>2150</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="61"/>
-        <v>2150</v>
-      </c>
-      <c r="Q24" s="9">
         <f t="shared" si="62"/>
         <v>2150</v>
       </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="63"/>
+        <v>2150</v>
+      </c>
       <c r="R24" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2150</v>
       </c>
       <c r="S24" s="11">
@@ -2936,43 +2931,43 @@
         <v>75</v>
       </c>
       <c r="T24" s="11">
-        <f t="shared" si="64"/>
-        <v>75</v>
-      </c>
-      <c r="U24" s="11">
         <f t="shared" si="65"/>
         <v>75</v>
       </c>
-      <c r="V24" s="11">
+      <c r="U24" s="11">
         <f t="shared" si="66"/>
         <v>75</v>
       </c>
-      <c r="W24" s="11">
+      <c r="V24" s="11">
         <f t="shared" si="67"/>
         <v>75</v>
       </c>
+      <c r="W24" s="11">
+        <f t="shared" si="68"/>
+        <v>75</v>
+      </c>
       <c r="X24" s="13">
-        <f xml:space="preserve"> SUM(N24,S24)</f>
+        <f t="shared" si="14"/>
         <v>2225</v>
       </c>
       <c r="Y24" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2225</v>
       </c>
       <c r="Z24" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2225</v>
       </c>
       <c r="AA24" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2225</v>
       </c>
       <c r="AB24" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2225</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11125</v>
       </c>
     </row>
@@ -2985,37 +2980,37 @@
         <f>MAX(C5:C24)</f>
         <v>50</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f>MAX(D5:D24)</f>
         <v>43</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
       <c r="N26" s="13">
         <f>MAX(N5:N24)</f>
         <v>2150</v>
       </c>
       <c r="O26" s="13">
-        <f t="shared" ref="O26:R26" si="78">MAX(O5:O24)</f>
+        <f t="shared" ref="O26:R26" si="79">MAX(O5:O24)</f>
         <v>2150</v>
       </c>
       <c r="P26" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2150</v>
       </c>
       <c r="Q26" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2150</v>
       </c>
       <c r="R26" s="13">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2150</v>
       </c>
       <c r="S26" s="13">
@@ -3023,19 +3018,19 @@
         <v>75</v>
       </c>
       <c r="T26" s="13">
-        <f t="shared" ref="T26:W26" si="79">MAX(T5:T24)</f>
+        <f t="shared" ref="T26:W26" si="80">MAX(T5:T24)</f>
         <v>75</v>
       </c>
       <c r="U26" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>75</v>
       </c>
       <c r="V26" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>75</v>
       </c>
       <c r="W26" s="13">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>75</v>
       </c>
       <c r="X26" s="13">
@@ -3043,24 +3038,24 @@
         <v>2225</v>
       </c>
       <c r="Y26" s="13">
-        <f t="shared" ref="Y26:AB26" si="80">MAX(Y5:Y24)</f>
+        <f t="shared" ref="Y26:AB26" si="81">MAX(Y5:Y24)</f>
         <v>2225</v>
       </c>
       <c r="Z26" s="13">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2225</v>
       </c>
       <c r="AA26" s="13">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2225</v>
       </c>
       <c r="AB26" s="13">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2225</v>
       </c>
       <c r="AC26" s="14"/>
       <c r="AD26" s="13">
-        <f t="shared" ref="AD26" si="81">MAX(AD5:AD24)</f>
+        <f t="shared" ref="AD26" si="82">MAX(AD5:AD24)</f>
         <v>11125</v>
       </c>
     </row>
@@ -3073,37 +3068,37 @@
         <f>MIN(C5:C24)</f>
         <v>6.9</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <f>MIN(D5:D24)</f>
         <v>43</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
       <c r="N27" s="13">
         <f>MIN(N5:N24)</f>
         <v>296.7</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" ref="O27:R27" si="82">MIN(O5:O24)</f>
+        <f t="shared" ref="O27:R27" si="83">MIN(O5:O24)</f>
         <v>296.7</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>296.7</v>
       </c>
       <c r="Q27" s="13">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>296.7</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>296.7</v>
       </c>
       <c r="S27" s="13">
@@ -3111,19 +3106,19 @@
         <v>10.350000000000001</v>
       </c>
       <c r="T27" s="13">
-        <f t="shared" ref="T27:W27" si="83">MIN(T5:T24)</f>
+        <f t="shared" ref="T27:W27" si="84">MIN(T5:T24)</f>
         <v>10.350000000000001</v>
       </c>
       <c r="U27" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>10.350000000000001</v>
       </c>
       <c r="V27" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>10.350000000000001</v>
       </c>
       <c r="W27" s="13">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>10.350000000000001</v>
       </c>
       <c r="X27" s="13">
@@ -3131,24 +3126,24 @@
         <v>307.05</v>
       </c>
       <c r="Y27" s="13">
-        <f t="shared" ref="Y27:AB27" si="84">MIN(Y5:Y24)</f>
+        <f t="shared" ref="Y27:AB27" si="85">MIN(Y5:Y24)</f>
         <v>307.05</v>
       </c>
       <c r="Z27" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>307.05</v>
       </c>
       <c r="AA27" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>307.05</v>
       </c>
       <c r="AB27" s="13">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>307.05</v>
       </c>
       <c r="AC27" s="14"/>
       <c r="AD27" s="13">
-        <f t="shared" ref="AD27" si="85">MIN(AD5:AD24)</f>
+        <f t="shared" ref="AD27" si="86">MIN(AD5:AD24)</f>
         <v>1535.25</v>
       </c>
     </row>
@@ -3161,37 +3156,37 @@
         <f>AVERAGE(C5:C24)</f>
         <v>19.297000000000001</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <f>AVERAGE(D5:D24)</f>
         <v>43</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
       <c r="N28" s="13">
         <f>AVERAGE(N5:N24)</f>
         <v>829.77100000000007</v>
       </c>
       <c r="O28" s="13">
-        <f t="shared" ref="O28:R28" si="86">AVERAGE(O5:O24)</f>
+        <f t="shared" ref="O28:R28" si="87">AVERAGE(O5:O24)</f>
         <v>829.77100000000007</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>829.77100000000007</v>
       </c>
       <c r="Q28" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>829.77100000000007</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>829.77100000000007</v>
       </c>
       <c r="S28" s="13">
@@ -3199,19 +3194,19 @@
         <v>28.945500000000003</v>
       </c>
       <c r="T28" s="13">
-        <f t="shared" ref="T28:W28" si="87">AVERAGE(T5:T24)</f>
+        <f t="shared" ref="T28:W28" si="88">AVERAGE(T5:T24)</f>
         <v>28.945500000000003</v>
       </c>
       <c r="U28" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>28.945500000000003</v>
       </c>
       <c r="V28" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>28.945500000000003</v>
       </c>
       <c r="W28" s="13">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>28.945500000000003</v>
       </c>
       <c r="X28" s="13">
@@ -3219,24 +3214,24 @@
         <v>858.71649999999988</v>
       </c>
       <c r="Y28" s="13">
-        <f t="shared" ref="Y28:AB28" si="88">AVERAGE(Y5:Y24)</f>
+        <f t="shared" ref="Y28:AB28" si="89">AVERAGE(Y5:Y24)</f>
         <v>858.71649999999988</v>
       </c>
       <c r="Z28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>858.71649999999988</v>
       </c>
       <c r="AA28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>858.71649999999988</v>
       </c>
       <c r="AB28" s="13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>858.71649999999988</v>
       </c>
       <c r="AC28" s="14"/>
       <c r="AD28" s="13">
-        <f t="shared" ref="AD28" si="89">AVERAGE(AD5:AD24)</f>
+        <f t="shared" ref="AD28" si="90">AVERAGE(AD5:AD24)</f>
         <v>4293.5824999999995</v>
       </c>
     </row>
@@ -3264,19 +3259,19 @@
         <v>16595.420000000002</v>
       </c>
       <c r="O29" s="13">
-        <f t="shared" ref="O29:R29" si="90">SUM(O5:O24)</f>
+        <f t="shared" ref="O29:R29" si="91">SUM(O5:O24)</f>
         <v>16595.420000000002</v>
       </c>
       <c r="P29" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>16595.420000000002</v>
       </c>
       <c r="Q29" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>16595.420000000002</v>
       </c>
       <c r="R29" s="13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>16595.420000000002</v>
       </c>
       <c r="S29" s="13">
@@ -3284,19 +3279,19 @@
         <v>578.91000000000008</v>
       </c>
       <c r="T29" s="13">
-        <f t="shared" ref="T29:W29" si="91">SUM(T5:T24)</f>
+        <f t="shared" ref="T29:W29" si="92">SUM(T5:T24)</f>
         <v>578.91000000000008</v>
       </c>
       <c r="U29" s="13">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>578.91000000000008</v>
       </c>
       <c r="V29" s="13">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>578.91000000000008</v>
       </c>
       <c r="W29" s="13">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>578.91000000000008</v>
       </c>
       <c r="X29" s="13">
@@ -3304,28 +3299,29 @@
         <v>17174.329999999998</v>
       </c>
       <c r="Y29" s="13">
-        <f t="shared" ref="Y29:AB29" si="92">SUM(Y5:Y24)</f>
+        <f t="shared" ref="Y29:AB29" si="93">SUM(Y5:Y24)</f>
         <v>17174.329999999998</v>
       </c>
       <c r="Z29" s="13">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>17174.329999999998</v>
       </c>
       <c r="AA29" s="13">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>17174.329999999998</v>
       </c>
       <c r="AB29" s="13">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>17174.329999999998</v>
       </c>
       <c r="AC29" s="14"/>
       <c r="AD29" s="13">
-        <f t="shared" ref="AD29" si="93">SUM(AD5:AD24)</f>
+        <f t="shared" ref="AD29" si="94">SUM(AD5:AD24)</f>
         <v>85871.65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="34" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>